--- a/sequences/08_retrieval_1.xlsx
+++ b/sequences/08_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1944,6 +1944,30 @@
       <c r="F4" t="s">
         <v>207</v>
       </c>
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -2008,6 +2032,30 @@
       <c r="F6" t="s">
         <v>207</v>
       </c>
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2116,6 +2164,30 @@
       <c r="F9" t="s">
         <v>207</v>
       </c>
+      <c r="G9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2268,6 +2340,30 @@
       <c r="F13" t="s">
         <v>207</v>
       </c>
+      <c r="G13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2420,6 +2516,30 @@
       <c r="F17" t="s">
         <v>207</v>
       </c>
+      <c r="G17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" t="s">
+        <v>207</v>
+      </c>
+      <c r="M17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2528,6 +2648,30 @@
       <c r="F20" t="s">
         <v>207</v>
       </c>
+      <c r="G20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2812,6 +2956,30 @@
       <c r="F27" t="s">
         <v>207</v>
       </c>
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2920,6 +3088,30 @@
       <c r="F30" t="s">
         <v>207</v>
       </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" t="s">
+        <v>207</v>
+      </c>
+      <c r="N30" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2984,6 +3176,30 @@
       <c r="F32" t="s">
         <v>207</v>
       </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N32" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -3048,6 +3264,30 @@
       <c r="F34" t="s">
         <v>207</v>
       </c>
+      <c r="G34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" t="s">
+        <v>207</v>
+      </c>
+      <c r="N34" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3068,6 +3308,30 @@
       <c r="F35" t="s">
         <v>207</v>
       </c>
+      <c r="G35" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" t="s">
+        <v>207</v>
+      </c>
+      <c r="N35" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3176,6 +3440,30 @@
       <c r="F38" t="s">
         <v>207</v>
       </c>
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" t="s">
+        <v>207</v>
+      </c>
+      <c r="J38" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" t="s">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38" t="s">
+        <v>207</v>
+      </c>
+      <c r="N38" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3284,6 +3572,30 @@
       <c r="F41" t="s">
         <v>207</v>
       </c>
+      <c r="G41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" t="s">
+        <v>207</v>
+      </c>
+      <c r="K41" t="s">
+        <v>207</v>
+      </c>
+      <c r="L41" t="s">
+        <v>207</v>
+      </c>
+      <c r="M41" t="s">
+        <v>207</v>
+      </c>
+      <c r="N41" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3348,6 +3660,30 @@
       <c r="F43" t="s">
         <v>207</v>
       </c>
+      <c r="G43" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" t="s">
+        <v>207</v>
+      </c>
+      <c r="J43" t="s">
+        <v>207</v>
+      </c>
+      <c r="K43" t="s">
+        <v>207</v>
+      </c>
+      <c r="L43" t="s">
+        <v>207</v>
+      </c>
+      <c r="M43" t="s">
+        <v>207</v>
+      </c>
+      <c r="N43" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3368,6 +3704,30 @@
       <c r="F44" t="s">
         <v>207</v>
       </c>
+      <c r="G44" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" t="s">
+        <v>207</v>
+      </c>
+      <c r="I44" t="s">
+        <v>207</v>
+      </c>
+      <c r="J44" t="s">
+        <v>207</v>
+      </c>
+      <c r="K44" t="s">
+        <v>207</v>
+      </c>
+      <c r="L44" t="s">
+        <v>207</v>
+      </c>
+      <c r="M44" t="s">
+        <v>207</v>
+      </c>
+      <c r="N44" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
@@ -3432,6 +3792,30 @@
       <c r="F46" t="s">
         <v>207</v>
       </c>
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" t="s">
+        <v>207</v>
+      </c>
+      <c r="J46" t="s">
+        <v>207</v>
+      </c>
+      <c r="K46" t="s">
+        <v>207</v>
+      </c>
+      <c r="L46" t="s">
+        <v>207</v>
+      </c>
+      <c r="M46" t="s">
+        <v>207</v>
+      </c>
+      <c r="N46" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3540,6 +3924,30 @@
       <c r="F49" t="s">
         <v>207</v>
       </c>
+      <c r="G49" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" t="s">
+        <v>207</v>
+      </c>
+      <c r="K49" t="s">
+        <v>207</v>
+      </c>
+      <c r="L49" t="s">
+        <v>207</v>
+      </c>
+      <c r="M49" t="s">
+        <v>207</v>
+      </c>
+      <c r="N49" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3648,6 +4056,30 @@
       <c r="F52" t="s">
         <v>207</v>
       </c>
+      <c r="G52" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" t="s">
+        <v>207</v>
+      </c>
+      <c r="J52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K52" t="s">
+        <v>207</v>
+      </c>
+      <c r="L52" t="s">
+        <v>207</v>
+      </c>
+      <c r="M52" t="s">
+        <v>207</v>
+      </c>
+      <c r="N52" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3668,6 +4100,30 @@
       <c r="F53" t="s">
         <v>207</v>
       </c>
+      <c r="G53" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" t="s">
+        <v>207</v>
+      </c>
+      <c r="J53" t="s">
+        <v>207</v>
+      </c>
+      <c r="K53" t="s">
+        <v>207</v>
+      </c>
+      <c r="L53" t="s">
+        <v>207</v>
+      </c>
+      <c r="M53" t="s">
+        <v>207</v>
+      </c>
+      <c r="N53" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3732,6 +4188,30 @@
       <c r="F55" t="s">
         <v>207</v>
       </c>
+      <c r="G55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" t="s">
+        <v>207</v>
+      </c>
+      <c r="J55" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" t="s">
+        <v>207</v>
+      </c>
+      <c r="L55" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" t="s">
+        <v>207</v>
+      </c>
+      <c r="N55" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3884,6 +4364,30 @@
       <c r="F59" t="s">
         <v>207</v>
       </c>
+      <c r="G59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" t="s">
+        <v>207</v>
+      </c>
+      <c r="J59" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" t="s">
+        <v>207</v>
+      </c>
+      <c r="L59" t="s">
+        <v>207</v>
+      </c>
+      <c r="M59" t="s">
+        <v>207</v>
+      </c>
+      <c r="N59" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -3904,6 +4408,30 @@
       <c r="F60" t="s">
         <v>207</v>
       </c>
+      <c r="G60" t="s">
+        <v>207</v>
+      </c>
+      <c r="H60" t="s">
+        <v>207</v>
+      </c>
+      <c r="I60" t="s">
+        <v>207</v>
+      </c>
+      <c r="J60" t="s">
+        <v>207</v>
+      </c>
+      <c r="K60" t="s">
+        <v>207</v>
+      </c>
+      <c r="L60" t="s">
+        <v>207</v>
+      </c>
+      <c r="M60" t="s">
+        <v>207</v>
+      </c>
+      <c r="N60" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
@@ -3924,6 +4452,30 @@
       <c r="F61" t="s">
         <v>207</v>
       </c>
+      <c r="G61" t="s">
+        <v>207</v>
+      </c>
+      <c r="H61" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" t="s">
+        <v>207</v>
+      </c>
+      <c r="J61" t="s">
+        <v>207</v>
+      </c>
+      <c r="K61" t="s">
+        <v>207</v>
+      </c>
+      <c r="L61" t="s">
+        <v>207</v>
+      </c>
+      <c r="M61" t="s">
+        <v>207</v>
+      </c>
+      <c r="N61" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -4076,6 +4628,30 @@
       <c r="F65" t="s">
         <v>207</v>
       </c>
+      <c r="G65" t="s">
+        <v>207</v>
+      </c>
+      <c r="H65" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" t="s">
+        <v>207</v>
+      </c>
+      <c r="J65" t="s">
+        <v>207</v>
+      </c>
+      <c r="K65" t="s">
+        <v>207</v>
+      </c>
+      <c r="L65" t="s">
+        <v>207</v>
+      </c>
+      <c r="M65" t="s">
+        <v>207</v>
+      </c>
+      <c r="N65" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4184,6 +4760,30 @@
       <c r="F68" t="s">
         <v>207</v>
       </c>
+      <c r="G68" t="s">
+        <v>207</v>
+      </c>
+      <c r="H68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" t="s">
+        <v>207</v>
+      </c>
+      <c r="L68" t="s">
+        <v>207</v>
+      </c>
+      <c r="M68" t="s">
+        <v>207</v>
+      </c>
+      <c r="N68" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4292,6 +4892,30 @@
       <c r="F71" t="s">
         <v>207</v>
       </c>
+      <c r="G71" t="s">
+        <v>207</v>
+      </c>
+      <c r="H71" t="s">
+        <v>207</v>
+      </c>
+      <c r="I71" t="s">
+        <v>207</v>
+      </c>
+      <c r="J71" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" t="s">
+        <v>207</v>
+      </c>
+      <c r="L71" t="s">
+        <v>207</v>
+      </c>
+      <c r="M71" t="s">
+        <v>207</v>
+      </c>
+      <c r="N71" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4400,6 +5024,30 @@
       <c r="F74" t="s">
         <v>207</v>
       </c>
+      <c r="G74" t="s">
+        <v>207</v>
+      </c>
+      <c r="H74" t="s">
+        <v>207</v>
+      </c>
+      <c r="I74" t="s">
+        <v>207</v>
+      </c>
+      <c r="J74" t="s">
+        <v>207</v>
+      </c>
+      <c r="K74" t="s">
+        <v>207</v>
+      </c>
+      <c r="L74" t="s">
+        <v>207</v>
+      </c>
+      <c r="M74" t="s">
+        <v>207</v>
+      </c>
+      <c r="N74" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
@@ -4552,6 +5200,30 @@
       <c r="F78" t="s">
         <v>207</v>
       </c>
+      <c r="G78" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" t="s">
+        <v>207</v>
+      </c>
+      <c r="I78" t="s">
+        <v>207</v>
+      </c>
+      <c r="J78" t="s">
+        <v>207</v>
+      </c>
+      <c r="K78" t="s">
+        <v>207</v>
+      </c>
+      <c r="L78" t="s">
+        <v>207</v>
+      </c>
+      <c r="M78" t="s">
+        <v>207</v>
+      </c>
+      <c r="N78" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4704,6 +5376,30 @@
       <c r="F82" t="s">
         <v>207</v>
       </c>
+      <c r="G82" t="s">
+        <v>207</v>
+      </c>
+      <c r="H82" t="s">
+        <v>207</v>
+      </c>
+      <c r="I82" t="s">
+        <v>207</v>
+      </c>
+      <c r="J82" t="s">
+        <v>207</v>
+      </c>
+      <c r="K82" t="s">
+        <v>207</v>
+      </c>
+      <c r="L82" t="s">
+        <v>207</v>
+      </c>
+      <c r="M82" t="s">
+        <v>207</v>
+      </c>
+      <c r="N82" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4812,6 +5508,30 @@
       <c r="F85" t="s">
         <v>207</v>
       </c>
+      <c r="G85" t="s">
+        <v>207</v>
+      </c>
+      <c r="H85" t="s">
+        <v>207</v>
+      </c>
+      <c r="I85" t="s">
+        <v>207</v>
+      </c>
+      <c r="J85" t="s">
+        <v>207</v>
+      </c>
+      <c r="K85" t="s">
+        <v>207</v>
+      </c>
+      <c r="L85" t="s">
+        <v>207</v>
+      </c>
+      <c r="M85" t="s">
+        <v>207</v>
+      </c>
+      <c r="N85" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4964,6 +5684,30 @@
       <c r="F89" t="s">
         <v>207</v>
       </c>
+      <c r="G89" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" t="s">
+        <v>207</v>
+      </c>
+      <c r="I89" t="s">
+        <v>207</v>
+      </c>
+      <c r="J89" t="s">
+        <v>207</v>
+      </c>
+      <c r="K89" t="s">
+        <v>207</v>
+      </c>
+      <c r="L89" t="s">
+        <v>207</v>
+      </c>
+      <c r="M89" t="s">
+        <v>207</v>
+      </c>
+      <c r="N89" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5116,6 +5860,30 @@
       <c r="F93" t="s">
         <v>207</v>
       </c>
+      <c r="G93" t="s">
+        <v>207</v>
+      </c>
+      <c r="H93" t="s">
+        <v>207</v>
+      </c>
+      <c r="I93" t="s">
+        <v>207</v>
+      </c>
+      <c r="J93" t="s">
+        <v>207</v>
+      </c>
+      <c r="K93" t="s">
+        <v>207</v>
+      </c>
+      <c r="L93" t="s">
+        <v>207</v>
+      </c>
+      <c r="M93" t="s">
+        <v>207</v>
+      </c>
+      <c r="N93" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5268,6 +6036,30 @@
       <c r="F97" t="s">
         <v>207</v>
       </c>
+      <c r="G97" t="s">
+        <v>207</v>
+      </c>
+      <c r="H97" t="s">
+        <v>207</v>
+      </c>
+      <c r="I97" t="s">
+        <v>207</v>
+      </c>
+      <c r="J97" t="s">
+        <v>207</v>
+      </c>
+      <c r="K97" t="s">
+        <v>207</v>
+      </c>
+      <c r="L97" t="s">
+        <v>207</v>
+      </c>
+      <c r="M97" t="s">
+        <v>207</v>
+      </c>
+      <c r="N97" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5376,6 +6168,30 @@
       <c r="F100" t="s">
         <v>207</v>
       </c>
+      <c r="G100" t="s">
+        <v>207</v>
+      </c>
+      <c r="H100" t="s">
+        <v>207</v>
+      </c>
+      <c r="I100" t="s">
+        <v>207</v>
+      </c>
+      <c r="J100" t="s">
+        <v>207</v>
+      </c>
+      <c r="K100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L100" t="s">
+        <v>207</v>
+      </c>
+      <c r="M100" t="s">
+        <v>207</v>
+      </c>
+      <c r="N100" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5440,6 +6256,30 @@
       <c r="F102" t="s">
         <v>207</v>
       </c>
+      <c r="G102" t="s">
+        <v>207</v>
+      </c>
+      <c r="H102" t="s">
+        <v>207</v>
+      </c>
+      <c r="I102" t="s">
+        <v>207</v>
+      </c>
+      <c r="J102" t="s">
+        <v>207</v>
+      </c>
+      <c r="K102" t="s">
+        <v>207</v>
+      </c>
+      <c r="L102" t="s">
+        <v>207</v>
+      </c>
+      <c r="M102" t="s">
+        <v>207</v>
+      </c>
+      <c r="N102" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
@@ -5636,6 +6476,30 @@
       <c r="F107" t="s">
         <v>207</v>
       </c>
+      <c r="G107" t="s">
+        <v>207</v>
+      </c>
+      <c r="H107" t="s">
+        <v>207</v>
+      </c>
+      <c r="I107" t="s">
+        <v>207</v>
+      </c>
+      <c r="J107" t="s">
+        <v>207</v>
+      </c>
+      <c r="K107" t="s">
+        <v>207</v>
+      </c>
+      <c r="L107" t="s">
+        <v>207</v>
+      </c>
+      <c r="M107" t="s">
+        <v>207</v>
+      </c>
+      <c r="N107" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5656,6 +6520,30 @@
       <c r="F108" t="s">
         <v>207</v>
       </c>
+      <c r="G108" t="s">
+        <v>207</v>
+      </c>
+      <c r="H108" t="s">
+        <v>207</v>
+      </c>
+      <c r="I108" t="s">
+        <v>207</v>
+      </c>
+      <c r="J108" t="s">
+        <v>207</v>
+      </c>
+      <c r="K108" t="s">
+        <v>207</v>
+      </c>
+      <c r="L108" t="s">
+        <v>207</v>
+      </c>
+      <c r="M108" t="s">
+        <v>207</v>
+      </c>
+      <c r="N108" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5676,6 +6564,30 @@
       <c r="F109" t="s">
         <v>207</v>
       </c>
+      <c r="G109" t="s">
+        <v>207</v>
+      </c>
+      <c r="H109" t="s">
+        <v>207</v>
+      </c>
+      <c r="I109" t="s">
+        <v>207</v>
+      </c>
+      <c r="J109" t="s">
+        <v>207</v>
+      </c>
+      <c r="K109" t="s">
+        <v>207</v>
+      </c>
+      <c r="L109" t="s">
+        <v>207</v>
+      </c>
+      <c r="M109" t="s">
+        <v>207</v>
+      </c>
+      <c r="N109" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -5960,6 +6872,30 @@
       <c r="F116" t="s">
         <v>207</v>
       </c>
+      <c r="G116" t="s">
+        <v>207</v>
+      </c>
+      <c r="H116" t="s">
+        <v>207</v>
+      </c>
+      <c r="I116" t="s">
+        <v>207</v>
+      </c>
+      <c r="J116" t="s">
+        <v>207</v>
+      </c>
+      <c r="K116" t="s">
+        <v>207</v>
+      </c>
+      <c r="L116" t="s">
+        <v>207</v>
+      </c>
+      <c r="M116" t="s">
+        <v>207</v>
+      </c>
+      <c r="N116" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6156,6 +7092,30 @@
       <c r="F121" t="s">
         <v>207</v>
       </c>
+      <c r="G121" t="s">
+        <v>207</v>
+      </c>
+      <c r="H121" t="s">
+        <v>207</v>
+      </c>
+      <c r="I121" t="s">
+        <v>207</v>
+      </c>
+      <c r="J121" t="s">
+        <v>207</v>
+      </c>
+      <c r="K121" t="s">
+        <v>207</v>
+      </c>
+      <c r="L121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N121" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6352,6 +7312,30 @@
       <c r="F126" t="s">
         <v>207</v>
       </c>
+      <c r="G126" t="s">
+        <v>207</v>
+      </c>
+      <c r="H126" t="s">
+        <v>207</v>
+      </c>
+      <c r="I126" t="s">
+        <v>207</v>
+      </c>
+      <c r="J126" t="s">
+        <v>207</v>
+      </c>
+      <c r="K126" t="s">
+        <v>207</v>
+      </c>
+      <c r="L126" t="s">
+        <v>207</v>
+      </c>
+      <c r="M126" t="s">
+        <v>207</v>
+      </c>
+      <c r="N126" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6416,6 +7400,30 @@
       <c r="F128" t="s">
         <v>207</v>
       </c>
+      <c r="G128" t="s">
+        <v>207</v>
+      </c>
+      <c r="H128" t="s">
+        <v>207</v>
+      </c>
+      <c r="I128" t="s">
+        <v>207</v>
+      </c>
+      <c r="J128" t="s">
+        <v>207</v>
+      </c>
+      <c r="K128" t="s">
+        <v>207</v>
+      </c>
+      <c r="L128" t="s">
+        <v>207</v>
+      </c>
+      <c r="M128" t="s">
+        <v>207</v>
+      </c>
+      <c r="N128" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6524,6 +7532,30 @@
       <c r="F131" t="s">
         <v>207</v>
       </c>
+      <c r="G131" t="s">
+        <v>207</v>
+      </c>
+      <c r="H131" t="s">
+        <v>207</v>
+      </c>
+      <c r="I131" t="s">
+        <v>207</v>
+      </c>
+      <c r="J131" t="s">
+        <v>207</v>
+      </c>
+      <c r="K131" t="s">
+        <v>207</v>
+      </c>
+      <c r="L131" t="s">
+        <v>207</v>
+      </c>
+      <c r="M131" t="s">
+        <v>207</v>
+      </c>
+      <c r="N131" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6544,6 +7576,30 @@
       <c r="F132" t="s">
         <v>207</v>
       </c>
+      <c r="G132" t="s">
+        <v>207</v>
+      </c>
+      <c r="H132" t="s">
+        <v>207</v>
+      </c>
+      <c r="I132" t="s">
+        <v>207</v>
+      </c>
+      <c r="J132" t="s">
+        <v>207</v>
+      </c>
+      <c r="K132" t="s">
+        <v>207</v>
+      </c>
+      <c r="L132" t="s">
+        <v>207</v>
+      </c>
+      <c r="M132" t="s">
+        <v>207</v>
+      </c>
+      <c r="N132" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6564,6 +7620,30 @@
       <c r="F133" t="s">
         <v>207</v>
       </c>
+      <c r="G133" t="s">
+        <v>207</v>
+      </c>
+      <c r="H133" t="s">
+        <v>207</v>
+      </c>
+      <c r="I133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J133" t="s">
+        <v>207</v>
+      </c>
+      <c r="K133" t="s">
+        <v>207</v>
+      </c>
+      <c r="L133" t="s">
+        <v>207</v>
+      </c>
+      <c r="M133" t="s">
+        <v>207</v>
+      </c>
+      <c r="N133" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6672,6 +7752,30 @@
       <c r="F136" t="s">
         <v>207</v>
       </c>
+      <c r="G136" t="s">
+        <v>207</v>
+      </c>
+      <c r="H136" t="s">
+        <v>207</v>
+      </c>
+      <c r="I136" t="s">
+        <v>207</v>
+      </c>
+      <c r="J136" t="s">
+        <v>207</v>
+      </c>
+      <c r="K136" t="s">
+        <v>207</v>
+      </c>
+      <c r="L136" t="s">
+        <v>207</v>
+      </c>
+      <c r="M136" t="s">
+        <v>207</v>
+      </c>
+      <c r="N136" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
@@ -6824,6 +7928,30 @@
       <c r="F140" t="s">
         <v>207</v>
       </c>
+      <c r="G140" t="s">
+        <v>207</v>
+      </c>
+      <c r="H140" t="s">
+        <v>207</v>
+      </c>
+      <c r="I140" t="s">
+        <v>207</v>
+      </c>
+      <c r="J140" t="s">
+        <v>207</v>
+      </c>
+      <c r="K140" t="s">
+        <v>207</v>
+      </c>
+      <c r="L140" t="s">
+        <v>207</v>
+      </c>
+      <c r="M140" t="s">
+        <v>207</v>
+      </c>
+      <c r="N140" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -6976,6 +8104,30 @@
       <c r="F144" t="s">
         <v>207</v>
       </c>
+      <c r="G144" t="s">
+        <v>207</v>
+      </c>
+      <c r="H144" t="s">
+        <v>207</v>
+      </c>
+      <c r="I144" t="s">
+        <v>207</v>
+      </c>
+      <c r="J144" t="s">
+        <v>207</v>
+      </c>
+      <c r="K144" t="s">
+        <v>207</v>
+      </c>
+      <c r="L144" t="s">
+        <v>207</v>
+      </c>
+      <c r="M144" t="s">
+        <v>207</v>
+      </c>
+      <c r="N144" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7216,6 +8368,30 @@
       <c r="F150" t="s">
         <v>207</v>
       </c>
+      <c r="G150" t="s">
+        <v>207</v>
+      </c>
+      <c r="H150" t="s">
+        <v>207</v>
+      </c>
+      <c r="I150" t="s">
+        <v>207</v>
+      </c>
+      <c r="J150" t="s">
+        <v>207</v>
+      </c>
+      <c r="K150" t="s">
+        <v>207</v>
+      </c>
+      <c r="L150" t="s">
+        <v>207</v>
+      </c>
+      <c r="M150" t="s">
+        <v>207</v>
+      </c>
+      <c r="N150" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7280,6 +8456,30 @@
       <c r="F152" t="s">
         <v>207</v>
       </c>
+      <c r="G152" t="s">
+        <v>207</v>
+      </c>
+      <c r="H152" t="s">
+        <v>207</v>
+      </c>
+      <c r="I152" t="s">
+        <v>207</v>
+      </c>
+      <c r="J152" t="s">
+        <v>207</v>
+      </c>
+      <c r="K152" t="s">
+        <v>207</v>
+      </c>
+      <c r="L152" t="s">
+        <v>207</v>
+      </c>
+      <c r="M152" t="s">
+        <v>207</v>
+      </c>
+      <c r="N152" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7432,6 +8632,30 @@
       <c r="F156" t="s">
         <v>207</v>
       </c>
+      <c r="G156" t="s">
+        <v>207</v>
+      </c>
+      <c r="H156" t="s">
+        <v>207</v>
+      </c>
+      <c r="I156" t="s">
+        <v>207</v>
+      </c>
+      <c r="J156" t="s">
+        <v>207</v>
+      </c>
+      <c r="K156" t="s">
+        <v>207</v>
+      </c>
+      <c r="L156" t="s">
+        <v>207</v>
+      </c>
+      <c r="M156" t="s">
+        <v>207</v>
+      </c>
+      <c r="N156" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7496,6 +8720,30 @@
       <c r="F158" t="s">
         <v>207</v>
       </c>
+      <c r="G158" t="s">
+        <v>207</v>
+      </c>
+      <c r="H158" t="s">
+        <v>207</v>
+      </c>
+      <c r="I158" t="s">
+        <v>207</v>
+      </c>
+      <c r="J158" t="s">
+        <v>207</v>
+      </c>
+      <c r="K158" t="s">
+        <v>207</v>
+      </c>
+      <c r="L158" t="s">
+        <v>207</v>
+      </c>
+      <c r="M158" t="s">
+        <v>207</v>
+      </c>
+      <c r="N158" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7648,6 +8896,30 @@
       <c r="F162" t="s">
         <v>207</v>
       </c>
+      <c r="G162" t="s">
+        <v>207</v>
+      </c>
+      <c r="H162" t="s">
+        <v>207</v>
+      </c>
+      <c r="I162" t="s">
+        <v>207</v>
+      </c>
+      <c r="J162" t="s">
+        <v>207</v>
+      </c>
+      <c r="K162" t="s">
+        <v>207</v>
+      </c>
+      <c r="L162" t="s">
+        <v>207</v>
+      </c>
+      <c r="M162" t="s">
+        <v>207</v>
+      </c>
+      <c r="N162" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7712,6 +8984,30 @@
       <c r="F164" t="s">
         <v>207</v>
       </c>
+      <c r="G164" t="s">
+        <v>207</v>
+      </c>
+      <c r="H164" t="s">
+        <v>207</v>
+      </c>
+      <c r="I164" t="s">
+        <v>207</v>
+      </c>
+      <c r="J164" t="s">
+        <v>207</v>
+      </c>
+      <c r="K164" t="s">
+        <v>207</v>
+      </c>
+      <c r="L164" t="s">
+        <v>207</v>
+      </c>
+      <c r="M164" t="s">
+        <v>207</v>
+      </c>
+      <c r="N164" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7864,6 +9160,30 @@
       <c r="F168" t="s">
         <v>207</v>
       </c>
+      <c r="G168" t="s">
+        <v>207</v>
+      </c>
+      <c r="H168" t="s">
+        <v>207</v>
+      </c>
+      <c r="I168" t="s">
+        <v>207</v>
+      </c>
+      <c r="J168" t="s">
+        <v>207</v>
+      </c>
+      <c r="K168" t="s">
+        <v>207</v>
+      </c>
+      <c r="L168" t="s">
+        <v>207</v>
+      </c>
+      <c r="M168" t="s">
+        <v>207</v>
+      </c>
+      <c r="N168" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
@@ -7884,6 +9204,30 @@
       <c r="F169" t="s">
         <v>207</v>
       </c>
+      <c r="G169" t="s">
+        <v>207</v>
+      </c>
+      <c r="H169" t="s">
+        <v>207</v>
+      </c>
+      <c r="I169" t="s">
+        <v>207</v>
+      </c>
+      <c r="J169" t="s">
+        <v>207</v>
+      </c>
+      <c r="K169" t="s">
+        <v>207</v>
+      </c>
+      <c r="L169" t="s">
+        <v>207</v>
+      </c>
+      <c r="M169" t="s">
+        <v>207</v>
+      </c>
+      <c r="N169" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -8036,6 +9380,30 @@
       <c r="F173" t="s">
         <v>207</v>
       </c>
+      <c r="G173" t="s">
+        <v>207</v>
+      </c>
+      <c r="H173" t="s">
+        <v>207</v>
+      </c>
+      <c r="I173" t="s">
+        <v>207</v>
+      </c>
+      <c r="J173" t="s">
+        <v>207</v>
+      </c>
+      <c r="K173" t="s">
+        <v>207</v>
+      </c>
+      <c r="L173" t="s">
+        <v>207</v>
+      </c>
+      <c r="M173" t="s">
+        <v>207</v>
+      </c>
+      <c r="N173" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8232,6 +9600,30 @@
       <c r="F178" t="s">
         <v>207</v>
       </c>
+      <c r="G178" t="s">
+        <v>207</v>
+      </c>
+      <c r="H178" t="s">
+        <v>207</v>
+      </c>
+      <c r="I178" t="s">
+        <v>207</v>
+      </c>
+      <c r="J178" t="s">
+        <v>207</v>
+      </c>
+      <c r="K178" t="s">
+        <v>207</v>
+      </c>
+      <c r="L178" t="s">
+        <v>207</v>
+      </c>
+      <c r="M178" t="s">
+        <v>207</v>
+      </c>
+      <c r="N178" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8472,6 +9864,30 @@
       <c r="F184" t="s">
         <v>207</v>
       </c>
+      <c r="G184" t="s">
+        <v>207</v>
+      </c>
+      <c r="H184" t="s">
+        <v>207</v>
+      </c>
+      <c r="I184" t="s">
+        <v>207</v>
+      </c>
+      <c r="J184" t="s">
+        <v>207</v>
+      </c>
+      <c r="K184" t="s">
+        <v>207</v>
+      </c>
+      <c r="L184" t="s">
+        <v>207</v>
+      </c>
+      <c r="M184" t="s">
+        <v>207</v>
+      </c>
+      <c r="N184" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8580,6 +9996,30 @@
       <c r="F187" t="s">
         <v>207</v>
       </c>
+      <c r="G187" t="s">
+        <v>207</v>
+      </c>
+      <c r="H187" t="s">
+        <v>207</v>
+      </c>
+      <c r="I187" t="s">
+        <v>207</v>
+      </c>
+      <c r="J187" t="s">
+        <v>207</v>
+      </c>
+      <c r="K187" t="s">
+        <v>207</v>
+      </c>
+      <c r="L187" t="s">
+        <v>207</v>
+      </c>
+      <c r="M187" t="s">
+        <v>207</v>
+      </c>
+      <c r="N187" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8600,6 +10040,30 @@
       <c r="F188" t="s">
         <v>207</v>
       </c>
+      <c r="G188" t="s">
+        <v>207</v>
+      </c>
+      <c r="H188" t="s">
+        <v>207</v>
+      </c>
+      <c r="I188" t="s">
+        <v>207</v>
+      </c>
+      <c r="J188" t="s">
+        <v>207</v>
+      </c>
+      <c r="K188" t="s">
+        <v>207</v>
+      </c>
+      <c r="L188" t="s">
+        <v>207</v>
+      </c>
+      <c r="M188" t="s">
+        <v>207</v>
+      </c>
+      <c r="N188" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8664,6 +10128,30 @@
       <c r="F190" t="s">
         <v>207</v>
       </c>
+      <c r="G190" t="s">
+        <v>207</v>
+      </c>
+      <c r="H190" t="s">
+        <v>207</v>
+      </c>
+      <c r="I190" t="s">
+        <v>207</v>
+      </c>
+      <c r="J190" t="s">
+        <v>207</v>
+      </c>
+      <c r="K190" t="s">
+        <v>207</v>
+      </c>
+      <c r="L190" t="s">
+        <v>207</v>
+      </c>
+      <c r="M190" t="s">
+        <v>207</v>
+      </c>
+      <c r="N190" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8684,6 +10172,30 @@
       <c r="F191" t="s">
         <v>207</v>
       </c>
+      <c r="G191" t="s">
+        <v>207</v>
+      </c>
+      <c r="H191" t="s">
+        <v>207</v>
+      </c>
+      <c r="I191" t="s">
+        <v>207</v>
+      </c>
+      <c r="J191" t="s">
+        <v>207</v>
+      </c>
+      <c r="K191" t="s">
+        <v>207</v>
+      </c>
+      <c r="L191" t="s">
+        <v>207</v>
+      </c>
+      <c r="M191" t="s">
+        <v>207</v>
+      </c>
+      <c r="N191" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
@@ -8729,7 +10241,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>207</v>
+      </c>
+      <c r="G193" t="s">
+        <v>207</v>
+      </c>
+      <c r="H193" t="s">
+        <v>207</v>
+      </c>
+      <c r="I193" t="s">
+        <v>207</v>
+      </c>
+      <c r="J193" t="s">
+        <v>207</v>
+      </c>
+      <c r="K193" t="s">
+        <v>207</v>
+      </c>
+      <c r="L193" t="s">
+        <v>207</v>
+      </c>
+      <c r="M193" t="s">
+        <v>207</v>
+      </c>
+      <c r="N193" t="s">
         <v>207</v>
       </c>
     </row>

--- a/sequences/08_retrieval_1.xlsx
+++ b/sequences/08_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>sparen</t>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>trösten</t>
   </si>
   <si>
     <t>heulen</t>
   </si>
   <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
     <t>spielen</t>
   </si>
   <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>trösten</t>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>hauen</t>
   </si>
   <si>
     <t>opfern</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>widmen</t>
   </si>
   <si>
     <t>face/face011.jpg</t>
